--- a/exp2/case01/report/correlation-interactions/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case01/report/correlation-interactions/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,18 +6,20 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_pearson_7" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_7" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_pearson_16" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_spearman_24" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_8" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_22" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_24" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_34" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_42" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_52" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="78">
   <si>
-    <t>Correlation information for DiffTheta - NroTotalInteractions in non-gamified.Master using the method: pearson</t>
+    <t>Correlation information for DiffScore - NroTotalInteractions in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -26,7 +28,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>DiffScore</t>
   </si>
   <si>
     <t>NroTotalInteractions</t>
@@ -53,13 +55,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-NrTtI</t>
+    <t>DffSc-NrTtI</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - NroTotalInteractions in non-gamified.Master</t>
+    <t>Data source for DiffScore - NroTotalInteractions in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - NroTotalInteractions in non-gamified.Master</t>
+    <t>Data full source for DiffScore - NroTotalInteractions in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -80,31 +82,136 @@
     <t>PlayerRole</t>
   </si>
   <si>
+    <t>ont-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Afrodite</t>
+  </si>
+  <si>
+    <t>Grupo Cronus</t>
+  </si>
+  <si>
+    <t>Grupo Hélio</t>
+  </si>
+  <si>
+    <t>Grupo Ares</t>
+  </si>
+  <si>
+    <t>Grupo Zeus</t>
+  </si>
+  <si>
+    <t>Grupo Urano</t>
+  </si>
+  <si>
+    <t>Grupo Hefesto</t>
+  </si>
+  <si>
+    <t>Grupo Gaia</t>
+  </si>
+  <si>
+    <t>Grupo Apolo</t>
+  </si>
+  <si>
+    <t>Grupo Hades</t>
+  </si>
+  <si>
+    <t>Grupo Artemis</t>
+  </si>
+  <si>
+    <t>Grupo Hermes</t>
+  </si>
+  <si>
+    <t>Grupo Caronte</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Yee Achiever</t>
+  </si>
+  <si>
+    <t>Yee Socializer</t>
+  </si>
+  <si>
+    <t>Correlation information for DiffScore - NroDesiredInteractions in Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>NroDesiredInteractions</t>
+  </si>
+  <si>
+    <t>DffSc-NrDsI</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - NroDesiredInteractions in Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - NroDesiredInteractions in Apprentice</t>
+  </si>
+  <si>
     <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 15</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
   </si>
   <si>
     <t>Grupo Team 9</t>
   </si>
   <si>
-    <t>Grupo Team 10</t>
-  </si>
-  <si>
-    <t>Grupo  Team 6</t>
+    <t>Grupo Team 2</t>
   </si>
   <si>
     <t>Grupo Team 4</t>
   </si>
   <si>
-    <t>Grupo Team 5</t>
+    <t>Grupo Team 16</t>
   </si>
   <si>
-    <t>Grupo Team 15</t>
+    <t/>
   </si>
   <si>
-    <t>Grupo Team 12</t>
+    <t>Correlation information for DiffScore - NroDesiredInteractions in non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Grupo Team 16</t>
+    <t>Data source for DiffScore - NroDesiredInteractions in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - NroDesiredInteractions in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for DiffScore - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Intrinsic Motivation</t>
+  </si>
+  <si>
+    <t>DffSc-IntrM</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Intrinsic Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Intrinsic Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
   </si>
   <si>
     <t>Grupo Team 8</t>
@@ -113,61 +220,37 @@
     <t>Grupo Team 14</t>
   </si>
   <si>
-    <t>Grupo Team 7</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
-    <t/>
+    <t>Correlation information for DiffScore - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - NroTotalInteractions in non-gamified.Master using the method: spearman</t>
+    <t>Interest/Enjoyment</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - NroNecessaryInteractions in non-gamified.Master using the method: pearson</t>
+    <t>DffSc-Int/E</t>
   </si>
   <si>
-    <t>NroNecessaryInteractions</t>
+    <t>Data source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>DffTh-NrNcI</t>
+    <t>Data full source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - NroNecessaryInteractions in non-gamified.Master</t>
+    <t>Correlation information for DiffScore - Perceived Choice in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - NroNecessaryInteractions in non-gamified.Master</t>
+    <t>Perceived Choice</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - NroDesiredInteractions in non-gamified.Apprentice using the method: spearman</t>
+    <t>DffSc-PrcvC</t>
   </si>
   <si>
-    <t>NroDesiredInteractions</t>
+    <t>Data source for DiffScore - Perceived Choice in non-gamified.Master</t>
   </si>
   <si>
-    <t>DffTh-NrDsI</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - NroDesiredInteractions in non-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - NroDesiredInteractions in non-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 3</t>
-  </si>
-  <si>
-    <t>Grupo Team 2</t>
-  </si>
-  <si>
-    <t>Grupo Team 13</t>
-  </si>
-  <si>
-    <t>Apprentice</t>
+    <t>Data full source for DiffScore - Perceived Choice in non-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -175,13 +258,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="297">
+  <fonts count="445">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2118,7 +3147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2776,6 +3805,334 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2836,7 +4193,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.5058981610656476</v>
+        <v>0.5707237129249031</v>
       </c>
     </row>
     <row r="7">
@@ -2844,10 +4201,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.5058981610656476</v>
+        <v>0.5707237129249031</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -2882,7 +4239,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>1.7594556284664502</v>
+        <v>2.305175049758532</v>
       </c>
     </row>
     <row r="13">
@@ -2890,10 +4247,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>1.7594556284664502</v>
-      </c>
-      <c r="C13" t="e" s="52">
-        <v>#DIV/0!</v>
+        <v>2.305175049758532</v>
+      </c>
+      <c r="C13" t="n" s="52">
+        <v>2.22574921994989E8</v>
       </c>
     </row>
     <row r="14">
@@ -2928,7 +4285,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.11235856268657596</v>
+        <v>0.041650927289394346</v>
       </c>
     </row>
     <row r="19">
@@ -2936,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.11235856268657596</v>
+        <v>0.041650927289394346</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -2977,16 +4334,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.13492256906421451</v>
+        <v>0.028792516481654835</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.5058981610656476</v>
+        <v>0.5707237129249031</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.8483266725204911</v>
+        <v>0.8533608424386595</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.11235856268657596</v>
+        <v>0.041650927289394346</v>
       </c>
     </row>
     <row r="25">
@@ -3014,7 +4371,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>-0.16206083851899455</v>
+        <v>2.251388888888889</v>
       </c>
       <c r="B29" t="n" s="114">
         <v>5.0</v>
@@ -3022,71 +4379,71 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-1.0314610011269332</v>
+        <v>1.2369047619047615</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>0.728136309206279</v>
+        <v>1.6660714285714286</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.16226149413174898</v>
+        <v>2.4222222222222207</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>0.3544640659509295</v>
+        <v>1.2958333333333343</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.14299820329426893</v>
+        <v>1.0882936507936503</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.6172103617216727</v>
+        <v>3.2472222222222227</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>0.4733407256476818</v>
+        <v>2.2138888888888886</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>-0.548850785325394</v>
+        <v>3.0138888888888884</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="113">
-        <v>0.6361517246417284</v>
+        <v>1.7291666666666679</v>
       </c>
       <c r="B38" t="n" s="114">
         <v>4.0</v>
@@ -3094,230 +4451,194 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="113">
-        <v>-0.5466262379416822</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="B39" t="n" s="114">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="113">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="B40" t="n" s="114">
         <v>2.0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="41">
+      <c r="A41" t="n" s="113">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="B41" t="n" s="114">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="118">
+    <row r="44">
+      <c r="A44" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="132">
+    <row r="45">
+      <c r="A45" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="132">
+      <c r="B45" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="132">
+      <c r="C45" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="132">
+      <c r="D45" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="132">
+      <c r="E45" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="132">
+      <c r="F45" t="s" s="132">
         <v>20</v>
       </c>
-      <c r="G43" t="s" s="132">
+      <c r="G45" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="H43" t="s" s="132">
+      <c r="H45" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10179.0</v>
-      </c>
-      <c r="B44" t="n" s="134">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>33</v>
-      </c>
-      <c r="F44" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>-0.16206083851899455</v>
-      </c>
-      <c r="H44" t="n" s="140">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10181.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.0276866E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s" s="137">
-        <v>33</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>-1.0314610011269332</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="133">
-        <v>10191.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B46" t="n" s="134">
-        <v>1.0276981E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C46" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D46" t="s" s="136">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="n" s="139">
-        <v>0.728136309206279</v>
+        <v>2.251388888888889</v>
       </c>
       <c r="H46" t="n" s="140">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="133">
-        <v>10212.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>9065750.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C47" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="136">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" t="n" s="139">
-        <v>-0.16226149413174898</v>
+        <v>1.2369047619047615</v>
       </c>
       <c r="H47" t="n" s="140">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10214.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.0277022E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s" s="138">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.3544640659509295</v>
+        <v>1.6660714285714286</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10216.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B49" t="n" s="134">
-        <v>1.027672E7</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C49" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="n" s="139">
-        <v>-0.14299820329426893</v>
+        <v>2.4222222222222207</v>
       </c>
       <c r="H49" t="n" s="140">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10219.0</v>
+        <v>10190.0</v>
       </c>
       <c r="B50" t="n" s="134">
-        <v>1.0276831E7</v>
+        <v>1.0276907E7</v>
       </c>
       <c r="C50" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s" s="138">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>0.6172103617216727</v>
+        <v>1.2958333333333343</v>
       </c>
       <c r="H50" t="n" s="140">
         <v>3.0</v>
@@ -3325,106 +4646,210 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="133">
-        <v>10222.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B51" t="n" s="134">
-        <v>9436110.0</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C51" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="136">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="n" s="139">
-        <v>0.4733407256476818</v>
+        <v>1.0882936507936503</v>
       </c>
       <c r="H51" t="n" s="140">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="133">
-        <v>10226.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B52" t="n" s="134">
-        <v>1.0310342E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C52" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="136">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="n" s="139">
-        <v>-0.548850785325394</v>
+        <v>3.2472222222222227</v>
       </c>
       <c r="H52" t="n" s="140">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="133">
-        <v>10230.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B53" t="n" s="134">
-        <v>1.0351992E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C53" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="136">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s" s="137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s" s="138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="n" s="139">
-        <v>0.6361517246417284</v>
+        <v>2.2138888888888886</v>
       </c>
       <c r="H53" t="n" s="140">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="133">
-        <v>10234.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B54" t="n" s="134">
-        <v>1.0310676E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C54" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="136">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G54" t="n" s="139">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="H54" t="n" s="140">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="133">
+        <v>10200.0</v>
+      </c>
+      <c r="B55" t="n" s="134">
+        <v>9795272.0</v>
+      </c>
+      <c r="C55" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="136">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G55" t="n" s="139">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="H55" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="133">
+        <v>10209.0</v>
+      </c>
+      <c r="B56" t="n" s="134">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C56" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="136">
         <v>32</v>
       </c>
-      <c r="E54" t="s" s="137">
+      <c r="E56" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G56" t="n" s="139">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="H56" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="133">
+        <v>10221.0</v>
+      </c>
+      <c r="B57" t="n" s="134">
+        <v>9082496.0</v>
+      </c>
+      <c r="C57" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="136">
         <v>33</v>
       </c>
-      <c r="F54" t="s" s="138">
+      <c r="E57" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G57" t="n" s="139">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="H57" t="n" s="140">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="133">
+        <v>10231.0</v>
+      </c>
+      <c r="B58" t="n" s="134">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C58" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="136">
         <v>34</v>
       </c>
-      <c r="G54" t="n" s="139">
-        <v>-0.5466262379416822</v>
-      </c>
-      <c r="H54" t="n" s="140">
-        <v>2.0</v>
+      <c r="E58" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G58" t="n" s="139">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="H58" t="n" s="140">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +4878,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -3477,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -3488,15 +4913,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>0.6260427294301534</v>
+        <v>0.5936024272961701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>0.6260427294301534</v>
+        <v>0.5936024272961701</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -3523,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -3534,15 +4959,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>2.408508943684408</v>
+        <v>3.3801795623583852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>2.408508943684408</v>
+        <v>3.3801795623583852</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -3569,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -3580,15 +5005,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.03934510260652502</v>
+        <v>0.0028264945694611576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.03934510260652502</v>
+        <v>0.0028264945694611576</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -3626,19 +5051,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>0.04190504684282732</v>
+        <v>0.2401647813909933</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>0.6260427294301534</v>
+        <v>0.5936024272961701</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.8912217428479462</v>
+        <v>0.808080148824228</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.03934510260652502</v>
+        <v>0.0028264945694611576</v>
       </c>
     </row>
     <row r="25">
@@ -3653,7 +5078,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -3661,422 +5086,830 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>-0.16206083851899455</v>
+        <v>2.251388888888889</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>-1.0314610011269332</v>
+        <v>3.1722222222222225</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>0.728136309206279</v>
+        <v>1.2369047619047615</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-0.16226149413174898</v>
+        <v>1.6660714285714286</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>0.3544640659509295</v>
+        <v>2.243055555555557</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>-0.14299820329426893</v>
+        <v>2.4222222222222207</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>0.6172103617216727</v>
+        <v>1.8097222222222236</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>0.4733407256476818</v>
+        <v>1.2958333333333343</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>-0.548850785325394</v>
+        <v>3.126388888888889</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="253">
-        <v>0.6361517246417284</v>
+        <v>1.0882936507936503</v>
       </c>
       <c r="B38" t="n" s="254">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="253">
-        <v>-0.5466262379416822</v>
+        <v>3.2472222222222227</v>
       </c>
       <c r="B39" t="n" s="254">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" t="n" s="253">
+        <v>2.2138888888888886</v>
+      </c>
+      <c r="B40" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="253">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="B41" t="n" s="254">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="253">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="B42" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="253">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B43" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="253">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="B44" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="253">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="B45" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="253">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="B46" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="253">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="B47" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="253">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="B48" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="253">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="B49" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="253">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="B50" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="253">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="B51" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="258">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="272">
+    <row r="54">
+      <c r="A54" t="s" s="258">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="272">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="272">
+      <c r="B55" t="s" s="272">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="272">
+      <c r="C55" t="s" s="272">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="272">
+      <c r="D55" t="s" s="272">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="272">
+      <c r="E55" t="s" s="272">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="272">
+      <c r="F55" t="s" s="272">
         <v>20</v>
       </c>
-      <c r="G43" t="s" s="272">
+      <c r="G55" t="s" s="272">
         <v>3</v>
       </c>
-      <c r="H43" t="s" s="272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="273">
-        <v>10179.0</v>
-      </c>
-      <c r="B44" t="n" s="274">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C44" t="s" s="275">
+      <c r="H55" t="s" s="272">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="273">
+        <v>10170.0</v>
+      </c>
+      <c r="B56" t="n" s="274">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C56" t="s" s="275">
         <v>21</v>
       </c>
-      <c r="D44" t="s" s="276">
+      <c r="D56" t="s" s="276">
         <v>22</v>
       </c>
-      <c r="E44" t="s" s="277">
+      <c r="E56" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G56" t="n" s="279">
+        <v>2.251388888888889</v>
+      </c>
+      <c r="H56" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="273">
+        <v>10171.0</v>
+      </c>
+      <c r="B57" t="n" s="274">
+        <v>698531.0</v>
+      </c>
+      <c r="C57" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G57" t="n" s="279">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H57" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="273">
+        <v>10176.0</v>
+      </c>
+      <c r="B58" t="n" s="274">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C58" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G58" t="n" s="279">
+        <v>1.2369047619047615</v>
+      </c>
+      <c r="H58" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="273">
+        <v>10183.0</v>
+      </c>
+      <c r="B59" t="n" s="274">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C59" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G59" t="n" s="279">
+        <v>1.6660714285714286</v>
+      </c>
+      <c r="H59" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="273">
+        <v>10185.0</v>
+      </c>
+      <c r="B60" t="n" s="274">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C60" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G60" t="n" s="279">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H60" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="273">
+        <v>10186.0</v>
+      </c>
+      <c r="B61" t="n" s="274">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C61" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G61" t="n" s="279">
+        <v>2.4222222222222207</v>
+      </c>
+      <c r="H61" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="273">
+        <v>10187.0</v>
+      </c>
+      <c r="B62" t="n" s="274">
+        <v>9790781.0</v>
+      </c>
+      <c r="C62" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s" s="276">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G62" t="n" s="279">
+        <v>1.8097222222222236</v>
+      </c>
+      <c r="H62" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="273">
+        <v>10190.0</v>
+      </c>
+      <c r="B63" t="n" s="274">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C63" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="276">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G63" t="n" s="279">
+        <v>1.2958333333333343</v>
+      </c>
+      <c r="H63" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="273">
+        <v>10192.0</v>
+      </c>
+      <c r="B64" t="n" s="274">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C64" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s" s="276">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G64" t="n" s="279">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H64" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="273">
+        <v>10195.0</v>
+      </c>
+      <c r="B65" t="n" s="274">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C65" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G65" t="n" s="279">
+        <v>1.0882936507936503</v>
+      </c>
+      <c r="H65" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="273">
+        <v>10196.0</v>
+      </c>
+      <c r="B66" t="n" s="274">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C66" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G66" t="n" s="279">
+        <v>3.2472222222222227</v>
+      </c>
+      <c r="H66" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B67" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C67" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G67" t="n" s="279">
+        <v>2.2138888888888886</v>
+      </c>
+      <c r="H67" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="273">
+        <v>10198.0</v>
+      </c>
+      <c r="B68" t="n" s="274">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C68" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s" s="276">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G68" t="n" s="279">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="H68" t="n" s="280">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="273">
+        <v>10200.0</v>
+      </c>
+      <c r="B69" t="n" s="274">
+        <v>9795272.0</v>
+      </c>
+      <c r="C69" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s" s="276">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G69" t="n" s="279">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="H69" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="273">
+        <v>10202.0</v>
+      </c>
+      <c r="B70" t="n" s="274">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C70" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s" s="276">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G70" t="n" s="279">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H70" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="273">
+        <v>10208.0</v>
+      </c>
+      <c r="B71" t="n" s="274">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C71" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s" s="276">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G71" t="n" s="279">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H71" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="273">
+        <v>10209.0</v>
+      </c>
+      <c r="B72" t="n" s="274">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C72" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s" s="276">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G72" t="n" s="279">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="H72" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="273">
+        <v>10210.0</v>
+      </c>
+      <c r="B73" t="n" s="274">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C73" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="276">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G73" t="n" s="279">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H73" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="273">
+        <v>10220.0</v>
+      </c>
+      <c r="B74" t="n" s="274">
+        <v>9760151.0</v>
+      </c>
+      <c r="C74" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s" s="276">
+        <v>51</v>
+      </c>
+      <c r="E74" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G74" t="n" s="279">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="H74" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="273">
+        <v>10221.0</v>
+      </c>
+      <c r="B75" t="n" s="274">
+        <v>9082496.0</v>
+      </c>
+      <c r="C75" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s" s="276">
         <v>33</v>
       </c>
-      <c r="F44" t="s" s="278">
+      <c r="E75" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G75" t="n" s="279">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="H75" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="273">
+        <v>10227.0</v>
+      </c>
+      <c r="B76" t="n" s="274">
+        <v>9274382.0</v>
+      </c>
+      <c r="C76" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s" s="276">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G76" t="n" s="279">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="H76" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B77" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C77" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s" s="276">
         <v>34</v>
       </c>
-      <c r="G44" t="n" s="279">
-        <v>-0.16206083851899455</v>
-      </c>
-      <c r="H44" t="n" s="280">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="273">
-        <v>10181.0</v>
-      </c>
-      <c r="B45" t="n" s="274">
-        <v>1.0276866E7</v>
-      </c>
-      <c r="C45" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="276">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F45" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G45" t="n" s="279">
-        <v>-1.0314610011269332</v>
-      </c>
-      <c r="H45" t="n" s="280">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="273">
-        <v>10191.0</v>
-      </c>
-      <c r="B46" t="n" s="274">
-        <v>1.0276981E7</v>
-      </c>
-      <c r="C46" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="276">
-        <v>24</v>
-      </c>
-      <c r="E46" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G46" t="n" s="279">
-        <v>0.728136309206279</v>
-      </c>
-      <c r="H46" t="n" s="280">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="273">
-        <v>10212.0</v>
-      </c>
-      <c r="B47" t="n" s="274">
-        <v>9065750.0</v>
-      </c>
-      <c r="C47" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="276">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F47" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G47" t="n" s="279">
-        <v>-0.16226149413174898</v>
-      </c>
-      <c r="H47" t="n" s="280">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="273">
-        <v>10214.0</v>
-      </c>
-      <c r="B48" t="n" s="274">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C48" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="276">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F48" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G48" t="n" s="279">
-        <v>0.3544640659509295</v>
-      </c>
-      <c r="H48" t="n" s="280">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="273">
-        <v>10216.0</v>
-      </c>
-      <c r="B49" t="n" s="274">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C49" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="276">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F49" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G49" t="n" s="279">
-        <v>-0.14299820329426893</v>
-      </c>
-      <c r="H49" t="n" s="280">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="273">
-        <v>10219.0</v>
-      </c>
-      <c r="B50" t="n" s="274">
-        <v>1.0276831E7</v>
-      </c>
-      <c r="C50" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="276">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F50" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G50" t="n" s="279">
-        <v>0.6172103617216727</v>
-      </c>
-      <c r="H50" t="n" s="280">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="273">
-        <v>10222.0</v>
-      </c>
-      <c r="B51" t="n" s="274">
-        <v>9436110.0</v>
-      </c>
-      <c r="C51" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="276">
-        <v>29</v>
-      </c>
-      <c r="E51" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F51" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G51" t="n" s="279">
-        <v>0.4733407256476818</v>
-      </c>
-      <c r="H51" t="n" s="280">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="273">
-        <v>10226.0</v>
-      </c>
-      <c r="B52" t="n" s="274">
-        <v>1.0310342E7</v>
-      </c>
-      <c r="C52" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="276">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F52" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G52" t="n" s="279">
-        <v>-0.548850785325394</v>
-      </c>
-      <c r="H52" t="n" s="280">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="273">
-        <v>10230.0</v>
-      </c>
-      <c r="B53" t="n" s="274">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C53" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="276">
-        <v>31</v>
-      </c>
-      <c r="E53" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F53" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G53" t="n" s="279">
-        <v>0.6361517246417284</v>
-      </c>
-      <c r="H53" t="n" s="280">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="273">
-        <v>10234.0</v>
-      </c>
-      <c r="B54" t="n" s="274">
-        <v>1.0310676E7</v>
-      </c>
-      <c r="C54" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="276">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F54" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G54" t="n" s="279">
-        <v>-0.5466262379416822</v>
-      </c>
-      <c r="H54" t="n" s="280">
-        <v>2.0</v>
+      <c r="E77" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G77" t="n" s="279">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="H77" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="273">
+        <v>10233.0</v>
+      </c>
+      <c r="B78" t="n" s="274">
+        <v>9805320.0</v>
+      </c>
+      <c r="C78" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s" s="276">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G78" t="n" s="279">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H78" t="n" s="280">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +5938,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -4129,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -4137,18 +5970,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="311">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.6419462192790115</v>
+        <v>0.6092717958449424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.6419462192790115</v>
+        <v>0.6092717958449424</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -4175,26 +6008,26 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="326">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="331">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="331">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>2.5116915483629825</v>
+        <v>2.173221471977732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>2.5116915483629825</v>
+        <v>2.173221471977732</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -4221,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -4232,15 +6065,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.033218429696181495</v>
+        <v>0.06150892339999059</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.033218429696181495</v>
+        <v>0.06150892339999059</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -4278,19 +6111,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>0.06841819849686526</v>
+        <v>-0.03302231000701737</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.6419462192790115</v>
+        <v>0.6092717958449424</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.8965651885146506</v>
+        <v>0.8954076079584627</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.033218429696181495</v>
+        <v>0.06150892339999059</v>
       </c>
     </row>
     <row r="25">
@@ -4305,7 +6138,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -4313,95 +6146,92 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>-0.16206083851899455</v>
+        <v>3.1722222222222225</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>-1.0314610011269332</v>
+        <v>2.243055555555557</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>0.728136309206279</v>
+        <v>1.8097222222222236</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>-0.16226149413174898</v>
+        <v>3.126388888888889</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>0.3544640659509295</v>
+        <v>1.0049603174603172</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>-0.14299820329426893</v>
+        <v>2.947222222222222</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>0.6172103617216727</v>
+        <v>2.1827380952380953</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>0.4733407256476818</v>
+        <v>1.1638888888888896</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
-        <v>-0.548850785325394</v>
+        <v>2.008333333333333</v>
       </c>
       <c r="B37" t="n" s="394">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="393">
-        <v>0.6361517246417284</v>
+        <v>2.1833333333333336</v>
       </c>
       <c r="B38" t="n" s="394">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="393">
-        <v>-0.5466262379416822</v>
-      </c>
-      <c r="B39" t="n" s="394">
-        <v>2.0</v>
+      <c r="A39" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4410,325 +6240,294 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>1</v>
+      <c r="A41" t="s" s="398">
+        <v>57</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="398">
-        <v>40</v>
+      <c r="A42" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s" s="412">
+        <v>39</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="412">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s" s="412">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s" s="412">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s" s="412">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s" s="412">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s" s="412">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s" s="412">
-        <v>37</v>
+      <c r="A43" t="n" s="413">
+        <v>10171.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>698531.0</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="413">
-        <v>10179.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B44" t="n" s="414">
-        <v>1.0310759E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C44" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s" s="416">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n" s="419">
-        <v>-0.16206083851899455</v>
+        <v>2.243055555555557</v>
       </c>
       <c r="H44" t="n" s="420">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="413">
-        <v>10181.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B45" t="n" s="414">
-        <v>1.0276866E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C45" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s" s="416">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G45" t="n" s="419">
-        <v>-1.0314610011269332</v>
+        <v>1.8097222222222236</v>
       </c>
       <c r="H45" t="n" s="420">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="413">
-        <v>10191.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B46" t="n" s="414">
-        <v>1.0276981E7</v>
+        <v>1.0276682E7</v>
       </c>
       <c r="C46" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s" s="416">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G46" t="n" s="419">
-        <v>0.728136309206279</v>
+        <v>3.126388888888889</v>
       </c>
       <c r="H46" t="n" s="420">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="413">
-        <v>10212.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B47" t="n" s="414">
-        <v>9065750.0</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C47" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s" s="416">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G47" t="n" s="419">
-        <v>-0.16226149413174898</v>
+        <v>1.0049603174603172</v>
       </c>
       <c r="H47" t="n" s="420">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="413">
-        <v>10214.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B48" t="n" s="414">
-        <v>1.0277022E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C48" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s" s="416">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G48" t="n" s="419">
-        <v>0.3544640659509295</v>
+        <v>2.947222222222222</v>
       </c>
       <c r="H48" t="n" s="420">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="413">
-        <v>10216.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B49" t="n" s="414">
-        <v>1.027672E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C49" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s" s="416">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>-0.14299820329426893</v>
+        <v>2.1827380952380953</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10219.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.0276831E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C50" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G50" t="n" s="419">
-        <v>0.6172103617216727</v>
+        <v>1.1638888888888896</v>
       </c>
       <c r="H50" t="n" s="420">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="413">
-        <v>10222.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B51" t="n" s="414">
-        <v>9436110.0</v>
+        <v>9274382.0</v>
       </c>
       <c r="C51" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s" s="416">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G51" t="n" s="419">
-        <v>0.4733407256476818</v>
+        <v>2.008333333333333</v>
       </c>
       <c r="H51" t="n" s="420">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="413">
-        <v>10226.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B52" t="n" s="414">
-        <v>1.0310342E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C52" t="s" s="415">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s" s="416">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s" s="417">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s" s="418">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G52" t="n" s="419">
-        <v>-0.548850785325394</v>
+        <v>2.1833333333333336</v>
       </c>
       <c r="H52" t="n" s="420">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="413">
-        <v>10230.0</v>
-      </c>
-      <c r="B53" t="n" s="414">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C53" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="416">
-        <v>31</v>
-      </c>
-      <c r="E53" t="s" s="417">
-        <v>33</v>
-      </c>
-      <c r="F53" t="s" s="418">
-        <v>34</v>
-      </c>
-      <c r="G53" t="n" s="419">
-        <v>0.6361517246417284</v>
-      </c>
-      <c r="H53" t="n" s="420">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="413">
-        <v>10234.0</v>
-      </c>
-      <c r="B54" t="n" s="414">
-        <v>1.0310676E7</v>
-      </c>
-      <c r="C54" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="416">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s" s="417">
-        <v>33</v>
-      </c>
-      <c r="F54" t="s" s="418">
-        <v>34</v>
-      </c>
-      <c r="G54" t="n" s="419">
-        <v>-0.5466262379416822</v>
-      </c>
-      <c r="H54" t="n" s="420">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +6556,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -4781,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -4792,15 +6591,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>-0.5477225575051662</v>
+        <v>-0.5428571428571428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>-0.5477225575051662</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="C7" t="n" s="452">
         <v>1.0</v>
@@ -4827,7 +6626,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -4838,15 +6637,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>-1.7320508075688776</v>
+        <v>-1.292786253135566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>-1.7320508075688776</v>
+        <v>-1.292786253135566</v>
       </c>
       <c r="C13" t="e" s="472">
         <v>#DIV/0!</v>
@@ -4873,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -4884,15 +6683,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.12687036692367082</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.12687036692367082</v>
+        <v>0.2657026239067053</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>0.0</v>
@@ -4930,19 +6729,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.888608850367329</v>
+        <v>-0.9402015149008094</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>-0.5477225575051662</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.18294689630141983</v>
+        <v>0.48031069987352654</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.12687036692367082</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="25">
@@ -4957,7 +6756,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -4965,79 +6764,561 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>0.20294165134752107</v>
+        <v>0.38055555555555465</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>0.0</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>0.4869812923614263</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>0.0</v>
+        <v>4.722222222222222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>-0.6186796122716838</v>
+        <v>0.4222222222222225</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>0.0</v>
+        <v>5.777777777777778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>0.8467030425455797</v>
+        <v>0.625</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>0.0</v>
+        <v>4.444444444444445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>0.6508838283323254</v>
+        <v>0.45555555555555394</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>0.0</v>
+        <v>4.055555555555555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>1.1609824497150842</v>
+        <v>0.6083333333333343</v>
       </c>
       <c r="B34" t="n" s="534">
+        <v>4.111111111111111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="538">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="552">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="552">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="553">
+        <v>10181.0</v>
+      </c>
+      <c r="B39" t="n" s="554">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C39" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s" s="556">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G39" t="n" s="559">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H39" t="n" s="560">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s" s="556">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G40" t="n" s="559">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H40" t="n" s="560">
+        <v>4.722222222222222</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="553">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="554">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s" s="556">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G41" t="n" s="559">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H41" t="n" s="560">
+        <v>5.777777777777778</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="553">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>0.625</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10226.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>4.055555555555555</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="553">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>4.111111111111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>0.5272012675161055</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>0.5272012675161055</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>1.6414935328322007</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>69</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>1.6414935328322007</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="631">
         <v>0.0</v>
       </c>
+      <c r="C18" t="n" s="632">
+        <v>0.14469933213386188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>69</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.14469933213386188</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>70</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.21068760956780738</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>0.5272012675161055</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.8823792345636607</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.14469933213386188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="533">
-        <v>0.7959539365349559</v>
-      </c>
-      <c r="B35" t="n" s="534">
-        <v>0.0</v>
+      <c r="A35" t="n" s="673">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>5.5</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="533">
-        <v>0.4709151680001552</v>
-      </c>
-      <c r="B36" t="n" s="534">
-        <v>0.0</v>
+      <c r="A36" t="n" s="673">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="B36" t="n" s="674">
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="533">
-        <v>-1.0565752195589666</v>
-      </c>
-      <c r="B37" t="n" s="534">
-        <v>2.0</v>
+      <c r="A37" t="n" s="673">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="38">
@@ -5051,268 +7332,750 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="538">
+      <c r="A40" t="s" s="678">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="692">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s" s="692">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="693">
+        <v>10171.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>698531.0</v>
+      </c>
+      <c r="C42" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="696">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n" s="699">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10185.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="696">
         <v>45</v>
       </c>
+      <c r="E43" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10192.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s" s="696">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10208.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10210.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s" s="696">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10220.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>9760151.0</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="693">
+        <v>10227.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>9274382.0</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n" s="699">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="H49" t="n" s="700">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>-0.5428571428571428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>74</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>-0.5428571428571428</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="751">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>-1.292786253135566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>74</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>-1.292786253135566</v>
+      </c>
+      <c r="C13" t="e" s="752">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.2657026239067053</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>74</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.2657026239067053</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>75</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.9402015149008094</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>-0.5428571428571428</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.48031069987352654</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.2657026239067053</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>0.625</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="818">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="832">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="832">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="833">
+        <v>10181.0</v>
+      </c>
+      <c r="B39" t="n" s="834">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C39" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s" s="836">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G39" t="n" s="839">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H39" t="n" s="840">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="833">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="834">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s" s="836">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G40" t="n" s="839">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H40" t="n" s="840">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="552">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s" s="552">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s" s="552">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s" s="552">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s" s="552">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s" s="552">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s" s="552">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s" s="552">
-        <v>42</v>
+      <c r="A41" t="n" s="833">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="834">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s" s="836">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G41" t="n" s="839">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H41" t="n" s="840">
+        <v>5.375</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="553">
-        <v>10187.0</v>
-      </c>
-      <c r="B42" t="n" s="554">
-        <v>9790781.0</v>
-      </c>
-      <c r="C42" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s" s="556">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G42" t="n" s="559">
-        <v>0.20294165134752107</v>
-      </c>
-      <c r="H42" t="n" s="560">
-        <v>0.0</v>
+      <c r="A42" t="n" s="833">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="834">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="836">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n" s="839">
+        <v>0.625</v>
+      </c>
+      <c r="H42" t="n" s="840">
+        <v>3.75</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="553">
-        <v>10202.0</v>
-      </c>
-      <c r="B43" t="n" s="554">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C43" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="556">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G43" t="n" s="559">
-        <v>0.4869812923614263</v>
-      </c>
-      <c r="H43" t="n" s="560">
-        <v>0.0</v>
+      <c r="A43" t="n" s="833">
+        <v>10226.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C43" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="836">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="839">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="553">
-        <v>10203.0</v>
-      </c>
-      <c r="B44" t="n" s="554">
-        <v>9921470.0</v>
-      </c>
-      <c r="C44" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="556">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G44" t="n" s="559">
-        <v>-0.6186796122716838</v>
-      </c>
-      <c r="H44" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="553">
-        <v>10210.0</v>
-      </c>
-      <c r="B45" t="n" s="554">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C45" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="556">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G45" t="n" s="559">
-        <v>0.8467030425455797</v>
-      </c>
-      <c r="H45" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="553">
-        <v>10220.0</v>
-      </c>
-      <c r="B46" t="n" s="554">
-        <v>9760151.0</v>
-      </c>
-      <c r="C46" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="556">
-        <v>48</v>
-      </c>
-      <c r="E46" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G46" t="n" s="559">
-        <v>0.6508838283323254</v>
-      </c>
-      <c r="H46" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="553">
-        <v>10224.0</v>
-      </c>
-      <c r="B47" t="n" s="554">
-        <v>9368772.0</v>
-      </c>
-      <c r="C47" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="556">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F47" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G47" t="n" s="559">
-        <v>1.1609824497150842</v>
-      </c>
-      <c r="H47" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="553">
-        <v>10227.0</v>
-      </c>
-      <c r="B48" t="n" s="554">
-        <v>9274382.0</v>
-      </c>
-      <c r="C48" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="556">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G48" t="n" s="559">
-        <v>0.7959539365349559</v>
-      </c>
-      <c r="H48" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="553">
-        <v>10233.0</v>
-      </c>
-      <c r="B49" t="n" s="554">
-        <v>9805320.0</v>
-      </c>
-      <c r="C49" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="556">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F49" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G49" t="n" s="559">
-        <v>0.4709151680001552</v>
-      </c>
-      <c r="H49" t="n" s="560">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="553">
-        <v>10238.0</v>
-      </c>
-      <c r="B50" t="n" s="554">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C50" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="556">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s" s="557">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G50" t="n" s="559">
-        <v>-1.0565752195589666</v>
-      </c>
-      <c r="H50" t="n" s="560">
-        <v>2.0</v>
+      <c r="A44" t="n" s="833">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>4.875</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case01/report/correlation-interactions/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case01/report/correlation-interactions/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,15 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_53" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_8" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_22" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_24" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_42" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_43" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="71">
   <si>
-    <t>Correlation information for DiffTheta - Perceived Choice in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for DiffScore - NroTotalInteractions in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -23,10 +27,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>DiffScore</t>
   </si>
   <si>
-    <t>Perceived Choice</t>
+    <t>NroTotalInteractions</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -50,13 +54,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-PrcvC</t>
+    <t>DffSc-NrTtI</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Perceived Choice in ont-gamified.Apprentice</t>
+    <t>Data source for DiffScore - NroTotalInteractions in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Perceived Choice in ont-gamified.Apprentice</t>
+    <t>Data full source for DiffScore - NroTotalInteractions in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -86,10 +90,10 @@
     <t>Grupo Cronus</t>
   </si>
   <si>
-    <t>Grupo Morfeu</t>
+    <t>Grupo Hélio</t>
   </si>
   <si>
-    <t>Grupo Hélio</t>
+    <t>Grupo Ares</t>
   </si>
   <si>
     <t>Grupo Zeus</t>
@@ -98,7 +102,19 @@
     <t>Grupo Urano</t>
   </si>
   <si>
+    <t>Grupo Hefesto</t>
+  </si>
+  <si>
     <t>Grupo Gaia</t>
+  </si>
+  <si>
+    <t>Grupo Apolo</t>
+  </si>
+  <si>
+    <t>Grupo Hades</t>
+  </si>
+  <si>
+    <t>Grupo Artemis</t>
   </si>
   <si>
     <t>Grupo Hermes</t>
@@ -115,19 +131,2010 @@
   <si>
     <t>Yee Socializer</t>
   </si>
+  <si>
+    <t>Correlation information for DiffScore - NroDesiredInteractions in Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>NroDesiredInteractions</t>
+  </si>
+  <si>
+    <t>DffSc-NrDsI</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - NroDesiredInteractions in Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - NroDesiredInteractions in Apprentice</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 15</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 2</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Grupo Team 16</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for DiffScore - NroDesiredInteractions in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - NroDesiredInteractions in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - NroDesiredInteractions in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for DiffScore - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Interest/Enjoyment</t>
+  </si>
+  <si>
+    <t>DffSc-Int/E</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for DiffScore - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Interest/Enjoyment in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Interest/Enjoyment in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 14</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="371">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -645,7 +2652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -811,6 +2818,662 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -871,7 +3534,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.6722926454528143</v>
+        <v>0.5707237129249031</v>
       </c>
     </row>
     <row r="7">
@@ -879,10 +3542,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.6722926454528143</v>
+        <v>0.5707237129249031</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +3580,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>2.402747568157891</v>
+        <v>2.305175049758532</v>
       </c>
     </row>
     <row r="13">
@@ -925,10 +3588,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>2.402747568157891</v>
-      </c>
-      <c r="C13" t="e" s="52">
-        <v>#DIV/0!</v>
+        <v>2.305175049758532</v>
+      </c>
+      <c r="C13" t="n" s="52">
+        <v>2.22574921994989E8</v>
       </c>
     </row>
     <row r="14">
@@ -963,7 +3626,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.047274938290474466</v>
+        <v>0.041650927289394346</v>
       </c>
     </row>
     <row r="19">
@@ -971,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.047274938290474466</v>
+        <v>0.041650927289394346</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -1012,16 +3675,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>0.014761885097395457</v>
+        <v>0.028792516481654835</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.6722926454528143</v>
+        <v>0.5707237129249031</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.9239052931815329</v>
+        <v>0.8533608424386595</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.047274938290474466</v>
+        <v>0.041650927289394346</v>
       </c>
     </row>
     <row r="25">
@@ -1049,74 +3712,2472 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>-0.05529337773285724</v>
+        <v>2.251388888888889</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.8943229174768339</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-0.016712276344255608</v>
+        <v>1.2369047619047615</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.04589615737790774</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.0046094263256747925</v>
+        <v>1.6660714285714286</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>0.04589615737790774</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.012570674202673153</v>
+        <v>2.4222222222222207</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.030134652759936636</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>0.0463865963424066</v>
+        <v>1.2958333333333343</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>0.20842448400090235</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.054162887292449696</v>
+        <v>1.0882936507936503</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.24483839120963827</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.04552897448731888</v>
+        <v>3.2472222222222227</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>1.3443366272681938</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>-0.19661825550064593</v>
+        <v>2.2138888888888886</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>-0.3811405822530769</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>0.06516017468002039</v>
+        <v>3.0138888888888884</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>1.3443366272681938</v>
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="113">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="B38" t="n" s="114">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="113">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="B39" t="n" s="114">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="113">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="B40" t="n" s="114">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="113">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="B41" t="n" s="114">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s" s="132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="133">
+        <v>10170.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>2.251388888888889</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="133">
+        <v>10176.0</v>
+      </c>
+      <c r="B47" t="n" s="134">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C47" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G47" t="n" s="139">
+        <v>1.2369047619047615</v>
+      </c>
+      <c r="H47" t="n" s="140">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="133">
+        <v>10183.0</v>
+      </c>
+      <c r="B48" t="n" s="134">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C48" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G48" t="n" s="139">
+        <v>1.6660714285714286</v>
+      </c>
+      <c r="H48" t="n" s="140">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="133">
+        <v>10186.0</v>
+      </c>
+      <c r="B49" t="n" s="134">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C49" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G49" t="n" s="139">
+        <v>2.4222222222222207</v>
+      </c>
+      <c r="H49" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="133">
+        <v>10190.0</v>
+      </c>
+      <c r="B50" t="n" s="134">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C50" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G50" t="n" s="139">
+        <v>1.2958333333333343</v>
+      </c>
+      <c r="H50" t="n" s="140">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="133">
+        <v>10195.0</v>
+      </c>
+      <c r="B51" t="n" s="134">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C51" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G51" t="n" s="139">
+        <v>1.0882936507936503</v>
+      </c>
+      <c r="H51" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="133">
+        <v>10196.0</v>
+      </c>
+      <c r="B52" t="n" s="134">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C52" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G52" t="n" s="139">
+        <v>3.2472222222222227</v>
+      </c>
+      <c r="H52" t="n" s="140">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="133">
+        <v>10197.0</v>
+      </c>
+      <c r="B53" t="n" s="134">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C53" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="136">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G53" t="n" s="139">
+        <v>2.2138888888888886</v>
+      </c>
+      <c r="H53" t="n" s="140">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="133">
+        <v>10198.0</v>
+      </c>
+      <c r="B54" t="n" s="134">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C54" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="136">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G54" t="n" s="139">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="H54" t="n" s="140">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="133">
+        <v>10200.0</v>
+      </c>
+      <c r="B55" t="n" s="134">
+        <v>9795272.0</v>
+      </c>
+      <c r="C55" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="136">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s" s="138">
+        <v>37</v>
+      </c>
+      <c r="G55" t="n" s="139">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="H55" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="133">
+        <v>10209.0</v>
+      </c>
+      <c r="B56" t="n" s="134">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C56" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="136">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G56" t="n" s="139">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="H56" t="n" s="140">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="133">
+        <v>10221.0</v>
+      </c>
+      <c r="B57" t="n" s="134">
+        <v>9082496.0</v>
+      </c>
+      <c r="C57" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="136">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G57" t="n" s="139">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="H57" t="n" s="140">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="133">
+        <v>10231.0</v>
+      </c>
+      <c r="B58" t="n" s="134">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C58" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="136">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s" s="138">
+        <v>36</v>
+      </c>
+      <c r="G58" t="n" s="139">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="H58" t="n" s="140">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="142">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="170">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="170">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="166">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="172">
+        <v>0.5936024272961701</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="166">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n" s="171">
+        <v>0.5936024272961701</v>
+      </c>
+      <c r="C7" t="n" s="172">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="190">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="190">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="186">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="191">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="192">
+        <v>3.3801795623583852</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="186">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n" s="191">
+        <v>3.3801795623583852</v>
+      </c>
+      <c r="C13" t="e" s="192">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="210">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="210">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="206">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="211">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="212">
+        <v>0.0028264945694611576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="206">
+        <v>39</v>
+      </c>
+      <c r="B19" t="n" s="211">
+        <v>0.0028264945694611576</v>
+      </c>
+      <c r="C19" t="n" s="212">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="230">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="230">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="230">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="226">
+        <v>40</v>
+      </c>
+      <c r="B24" t="n" s="231">
+        <v>0.2401647813909933</v>
+      </c>
+      <c r="C24" t="n" s="232">
+        <v>0.5936024272961701</v>
+      </c>
+      <c r="D24" t="n" s="233">
+        <v>0.808080148824228</v>
+      </c>
+      <c r="E24" t="n" s="234">
+        <v>0.0028264945694611576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="238">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="252">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="252">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="253">
+        <v>2.251388888888889</v>
+      </c>
+      <c r="B29" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="253">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="B30" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="253">
+        <v>1.2369047619047615</v>
+      </c>
+      <c r="B31" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="253">
+        <v>1.6660714285714286</v>
+      </c>
+      <c r="B32" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="253">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="B33" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="253">
+        <v>2.4222222222222207</v>
+      </c>
+      <c r="B34" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="253">
+        <v>1.8097222222222236</v>
+      </c>
+      <c r="B35" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="253">
+        <v>1.2958333333333343</v>
+      </c>
+      <c r="B36" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="253">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="B37" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="253">
+        <v>1.0882936507936503</v>
+      </c>
+      <c r="B38" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="253">
+        <v>3.2472222222222227</v>
+      </c>
+      <c r="B39" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="253">
+        <v>2.2138888888888886</v>
+      </c>
+      <c r="B40" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="253">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="B41" t="n" s="254">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="253">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="B42" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="253">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B43" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="253">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="B44" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="253">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="B45" t="n" s="254">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="253">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="B46" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="253">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="B47" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="253">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="B48" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="253">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="B49" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="253">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="B50" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="253">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="B51" t="n" s="254">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="258">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s" s="272">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s" s="272">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="273">
+        <v>10170.0</v>
+      </c>
+      <c r="B56" t="n" s="274">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C56" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G56" t="n" s="279">
+        <v>2.251388888888889</v>
+      </c>
+      <c r="H56" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="273">
+        <v>10171.0</v>
+      </c>
+      <c r="B57" t="n" s="274">
+        <v>698531.0</v>
+      </c>
+      <c r="C57" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G57" t="n" s="279">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H57" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="273">
+        <v>10176.0</v>
+      </c>
+      <c r="B58" t="n" s="274">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C58" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G58" t="n" s="279">
+        <v>1.2369047619047615</v>
+      </c>
+      <c r="H58" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="273">
+        <v>10183.0</v>
+      </c>
+      <c r="B59" t="n" s="274">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C59" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G59" t="n" s="279">
+        <v>1.6660714285714286</v>
+      </c>
+      <c r="H59" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="273">
+        <v>10185.0</v>
+      </c>
+      <c r="B60" t="n" s="274">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C60" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G60" t="n" s="279">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H60" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="273">
+        <v>10186.0</v>
+      </c>
+      <c r="B61" t="n" s="274">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C61" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G61" t="n" s="279">
+        <v>2.4222222222222207</v>
+      </c>
+      <c r="H61" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="273">
+        <v>10187.0</v>
+      </c>
+      <c r="B62" t="n" s="274">
+        <v>9790781.0</v>
+      </c>
+      <c r="C62" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s" s="276">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G62" t="n" s="279">
+        <v>1.8097222222222236</v>
+      </c>
+      <c r="H62" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="273">
+        <v>10190.0</v>
+      </c>
+      <c r="B63" t="n" s="274">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C63" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="276">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G63" t="n" s="279">
+        <v>1.2958333333333343</v>
+      </c>
+      <c r="H63" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="273">
+        <v>10192.0</v>
+      </c>
+      <c r="B64" t="n" s="274">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C64" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s" s="276">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G64" t="n" s="279">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H64" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="273">
+        <v>10195.0</v>
+      </c>
+      <c r="B65" t="n" s="274">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C65" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G65" t="n" s="279">
+        <v>1.0882936507936503</v>
+      </c>
+      <c r="H65" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="273">
+        <v>10196.0</v>
+      </c>
+      <c r="B66" t="n" s="274">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C66" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G66" t="n" s="279">
+        <v>3.2472222222222227</v>
+      </c>
+      <c r="H66" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B67" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C67" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G67" t="n" s="279">
+        <v>2.2138888888888886</v>
+      </c>
+      <c r="H67" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="273">
+        <v>10198.0</v>
+      </c>
+      <c r="B68" t="n" s="274">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C68" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s" s="276">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G68" t="n" s="279">
+        <v>3.0138888888888884</v>
+      </c>
+      <c r="H68" t="n" s="280">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="273">
+        <v>10200.0</v>
+      </c>
+      <c r="B69" t="n" s="274">
+        <v>9795272.0</v>
+      </c>
+      <c r="C69" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s" s="276">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s" s="278">
+        <v>37</v>
+      </c>
+      <c r="G69" t="n" s="279">
+        <v>1.7291666666666679</v>
+      </c>
+      <c r="H69" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="273">
+        <v>10202.0</v>
+      </c>
+      <c r="B70" t="n" s="274">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C70" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s" s="276">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G70" t="n" s="279">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H70" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="273">
+        <v>10208.0</v>
+      </c>
+      <c r="B71" t="n" s="274">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C71" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s" s="276">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G71" t="n" s="279">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H71" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="273">
+        <v>10209.0</v>
+      </c>
+      <c r="B72" t="n" s="274">
+        <v>1.0262669E7</v>
+      </c>
+      <c r="C72" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s" s="276">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G72" t="n" s="279">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="H72" t="n" s="280">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="273">
+        <v>10210.0</v>
+      </c>
+      <c r="B73" t="n" s="274">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C73" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="276">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G73" t="n" s="279">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H73" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="273">
+        <v>10220.0</v>
+      </c>
+      <c r="B74" t="n" s="274">
+        <v>9760151.0</v>
+      </c>
+      <c r="C74" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s" s="276">
+        <v>51</v>
+      </c>
+      <c r="E74" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G74" t="n" s="279">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="H74" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="273">
+        <v>10221.0</v>
+      </c>
+      <c r="B75" t="n" s="274">
+        <v>9082496.0</v>
+      </c>
+      <c r="C75" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s" s="276">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G75" t="n" s="279">
+        <v>0.42777777777777715</v>
+      </c>
+      <c r="H75" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="273">
+        <v>10227.0</v>
+      </c>
+      <c r="B76" t="n" s="274">
+        <v>9274382.0</v>
+      </c>
+      <c r="C76" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s" s="276">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G76" t="n" s="279">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="H76" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B77" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C77" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s" s="276">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s" s="278">
+        <v>36</v>
+      </c>
+      <c r="G77" t="n" s="279">
+        <v>1.8666666666666671</v>
+      </c>
+      <c r="H77" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="273">
+        <v>10233.0</v>
+      </c>
+      <c r="B78" t="n" s="274">
+        <v>9805320.0</v>
+      </c>
+      <c r="C78" t="s" s="275">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s" s="276">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s" s="277">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s" s="278">
+        <v>54</v>
+      </c>
+      <c r="G78" t="n" s="279">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H78" t="n" s="280">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="282">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="310">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="310">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="306">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="311">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="312">
+        <v>0.6092717958449424</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="306">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n" s="311">
+        <v>0.6092717958449424</v>
+      </c>
+      <c r="C7" t="n" s="312">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="330">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="330">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="326">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="331">
+        <v>1.3421772799999999E8</v>
+      </c>
+      <c r="C12" t="n" s="332">
+        <v>2.173221471977732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="326">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n" s="331">
+        <v>2.173221471977732</v>
+      </c>
+      <c r="C13" t="e" s="332">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="350">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="350">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="346">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="351">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="352">
+        <v>0.06150892339999059</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="346">
+        <v>39</v>
+      </c>
+      <c r="B19" t="n" s="351">
+        <v>0.06150892339999059</v>
+      </c>
+      <c r="C19" t="n" s="352">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="370">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="370">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="370">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="366">
+        <v>40</v>
+      </c>
+      <c r="B24" t="n" s="371">
+        <v>-0.03302231000701737</v>
+      </c>
+      <c r="C24" t="n" s="372">
+        <v>0.6092717958449424</v>
+      </c>
+      <c r="D24" t="n" s="373">
+        <v>0.8954076079584627</v>
+      </c>
+      <c r="E24" t="n" s="374">
+        <v>0.06150892339999059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="378">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="392">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="392">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="393">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="B29" t="n" s="394">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="393">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="B30" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="393">
+        <v>1.8097222222222236</v>
+      </c>
+      <c r="B31" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="393">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="B32" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="393">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B33" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="393">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="B34" t="n" s="394">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="393">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="B35" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="B36" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="393">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="B38" t="n" s="394">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="398">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s" s="412">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="413">
+        <v>10171.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>698531.0</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="413">
+        <v>10185.0</v>
+      </c>
+      <c r="B44" t="n" s="414">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C44" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="419">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H44" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="413">
+        <v>10187.0</v>
+      </c>
+      <c r="B45" t="n" s="414">
+        <v>9790781.0</v>
+      </c>
+      <c r="C45" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s" s="416">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G45" t="n" s="419">
+        <v>1.8097222222222236</v>
+      </c>
+      <c r="H45" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="413">
+        <v>10192.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="413">
+        <v>10202.0</v>
+      </c>
+      <c r="B47" t="n" s="414">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C47" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="413">
+        <v>10208.0</v>
+      </c>
+      <c r="B48" t="n" s="414">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C48" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s" s="416">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="419">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H48" t="n" s="420">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="413">
+        <v>10210.0</v>
+      </c>
+      <c r="B49" t="n" s="414">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C49" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n" s="419">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H49" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="413">
+        <v>10220.0</v>
+      </c>
+      <c r="B50" t="n" s="414">
+        <v>9760151.0</v>
+      </c>
+      <c r="C50" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s" s="416">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="413">
+        <v>10227.0</v>
+      </c>
+      <c r="B51" t="n" s="414">
+        <v>9274382.0</v>
+      </c>
+      <c r="C51" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s" s="416">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G51" t="n" s="419">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="H51" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="413">
+        <v>10233.0</v>
+      </c>
+      <c r="B52" t="n" s="414">
+        <v>9805320.0</v>
+      </c>
+      <c r="C52" t="s" s="415">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s" s="416">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s" s="417">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G52" t="n" s="419">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H52" t="n" s="420">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>0.5272012675161055</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>59</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>0.5272012675161055</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>1.6414935328322007</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>1.6414935328322007</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.14469933213386188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>59</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.14469933213386188</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.21068760956780738</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>0.5272012675161055</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>0.8823792345636607</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.14469933213386188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="533">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="533">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="B36" t="n" s="534">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="533">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="B37" t="n" s="534">
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="38">
@@ -1130,268 +6191,818 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="118">
-        <v>14</v>
+      <c r="A40" t="s" s="538">
+        <v>62</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="132">
+      <c r="A41" t="s" s="552">
         <v>15</v>
       </c>
-      <c r="B41" t="s" s="132">
+      <c r="B41" t="s" s="552">
         <v>16</v>
       </c>
-      <c r="C41" t="s" s="132">
+      <c r="C41" t="s" s="552">
         <v>17</v>
       </c>
-      <c r="D41" t="s" s="132">
+      <c r="D41" t="s" s="552">
         <v>18</v>
       </c>
-      <c r="E41" t="s" s="132">
+      <c r="E41" t="s" s="552">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="132">
+      <c r="F41" t="s" s="552">
         <v>20</v>
       </c>
-      <c r="G41" t="s" s="132">
+      <c r="G41" t="s" s="552">
         <v>3</v>
       </c>
-      <c r="H41" t="s" s="132">
-        <v>4</v>
+      <c r="H41" t="s" s="552">
+        <v>59</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="133">
-        <v>10170.0</v>
-      </c>
-      <c r="B42" t="n" s="134">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C42" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G42" t="n" s="139">
-        <v>-0.05529337773285724</v>
-      </c>
-      <c r="H42" t="n" s="140">
-        <v>0.8943229174768339</v>
+      <c r="A42" t="n" s="553">
+        <v>10171.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>698531.0</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="133">
-        <v>10176.0</v>
-      </c>
-      <c r="B43" t="n" s="134">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C43" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G43" t="n" s="139">
-        <v>-0.016712276344255608</v>
-      </c>
-      <c r="H43" t="n" s="140">
-        <v>0.04589615737790774</v>
+      <c r="A43" t="n" s="553">
+        <v>10185.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10178.0</v>
-      </c>
-      <c r="B44" t="n" s="134">
-        <v>8656201.0</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>-0.0046094263256747925</v>
-      </c>
-      <c r="H44" t="n" s="140">
-        <v>0.04589615737790774</v>
+      <c r="A44" t="n" s="553">
+        <v>10192.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10183.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>-0.012570674202673153</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>-0.030134652759936636</v>
+      <c r="A45" t="n" s="553">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s" s="556">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G45" t="n" s="559">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10190.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>0.0463865963424066</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>0.20842448400090235</v>
+      <c r="A46" t="n" s="553">
+        <v>10208.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H46" t="n" s="560">
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="133">
-        <v>10195.0</v>
-      </c>
-      <c r="B47" t="n" s="134">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C47" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G47" t="n" s="139">
-        <v>-0.054162887292449696</v>
-      </c>
-      <c r="H47" t="n" s="140">
-        <v>-0.24483839120963827</v>
+      <c r="A47" t="n" s="553">
+        <v>10210.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G47" t="n" s="559">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H47" t="n" s="560">
+        <v>3.5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="133">
-        <v>10197.0</v>
-      </c>
-      <c r="B48" t="n" s="134">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C48" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E48" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G48" t="n" s="139">
-        <v>0.04552897448731888</v>
-      </c>
-      <c r="H48" t="n" s="140">
-        <v>1.3443366272681938</v>
+      <c r="A48" t="n" s="553">
+        <v>10220.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>9760151.0</v>
+      </c>
+      <c r="C48" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s" s="556">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>1.1638888888888896</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10221.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>9082496.0</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>-0.19661825550064593</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>-0.3811405822530769</v>
+      <c r="A49" t="n" s="553">
+        <v>10227.0</v>
+      </c>
+      <c r="B49" t="n" s="554">
+        <v>9274382.0</v>
+      </c>
+      <c r="C49" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s" s="556">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n" s="559">
+        <v>2.008333333333333</v>
+      </c>
+      <c r="H49" t="n" s="560">
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10231.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>0.06516017468002039</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>1.3443366272681938</v>
+      <c r="A50" t="n" s="553">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="554">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="555">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s" s="556">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s" s="557">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G50" t="n" s="559">
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="H50" t="n" s="560">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>-0.5628843430992317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>59</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>-0.5628843430992317</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>-1.6681426734559697</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>-1.6681426734559697</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.14633153260555054</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>59</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.14633153260555054</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.9075701527310196</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>-0.5628843430992317</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.2350019633127033</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.14633153260555054</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>-0.13333333333333464</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>0.03333333333333144</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>0.625</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="673">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="673">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="B36" t="n" s="674">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="678">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s" s="692">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s" s="692">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="693">
+        <v>10181.0</v>
+      </c>
+      <c r="B41" t="n" s="694">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C41" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s" s="696">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G41" t="n" s="699">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H41" t="n" s="700">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="693">
+        <v>10188.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C42" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="696">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G42" t="n" s="699">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10191.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="696">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10212.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>9065750.0</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>-0.13333333333333464</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10214.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s" s="696">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>0.03333333333333144</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10219.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>0.625</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10226.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s" s="696">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10230.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
